--- a/static/inputData/Template/particle_count_template.xlsx
+++ b/static/inputData/Template/particle_count_template.xlsx
@@ -12,17 +12,14 @@
   <definedNames>
     <definedName name="B">#REF!</definedName>
     <definedName name="PCT">#REF!</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">NVPC!$A$1:$P$35</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">NVPC!$A$1:$P$33</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="31">
-  <si>
-    <t>TEST REPORT</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="29">
   <si>
     <t>CUSTOMER NAME</t>
   </si>
@@ -36,9 +33,6 @@
     <t xml:space="preserve">: </t>
   </si>
   <si>
-    <t>: Air Velocity</t>
-  </si>
-  <si>
     <t>: At Rest Condition</t>
   </si>
   <si>
@@ -108,10 +102,10 @@
     <t>TEST TAKEN CONDITION</t>
   </si>
   <si>
-    <t>NAME OF TEST</t>
-  </si>
-  <si>
     <t>Remarks</t>
+  </si>
+  <si>
+    <t>PARTICLE COUNT TEST</t>
   </si>
 </sst>
 </file>
@@ -195,7 +189,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -218,38 +212,41 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -556,10 +553,10 @@
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
   </sheetPr>
-  <dimension ref="A1:S34"/>
+  <dimension ref="A1:S32"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="82" zoomScaleNormal="100" zoomScaleSheetLayoutView="82" workbookViewId="0">
-      <selection activeCell="L20" sqref="L20:P20"/>
+      <selection activeCell="V24" sqref="V24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -584,50 +581,50 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:16" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B1" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8"/>
-      <c r="J1" s="8"/>
-      <c r="K1" s="8"/>
-      <c r="L1" s="8"/>
-      <c r="M1" s="8"/>
-      <c r="N1" s="8"/>
-      <c r="O1" s="8"/>
-      <c r="P1" s="8"/>
+      <c r="B1" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
+      <c r="K1" s="9"/>
+      <c r="L1" s="9"/>
+      <c r="M1" s="9"/>
+      <c r="N1" s="9"/>
+      <c r="O1" s="9"/>
+      <c r="P1" s="9"/>
     </row>
     <row r="2" spans="2:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8"/>
-      <c r="J2" s="8"/>
-      <c r="K2" s="8"/>
-      <c r="L2" s="8"/>
-      <c r="M2" s="8"/>
-      <c r="N2" s="8"/>
-      <c r="O2" s="8"/>
-      <c r="P2" s="8"/>
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="9"/>
+      <c r="K2" s="9"/>
+      <c r="L2" s="9"/>
+      <c r="M2" s="9"/>
+      <c r="N2" s="9"/>
+      <c r="O2" s="9"/>
+      <c r="P2" s="9"/>
     </row>
     <row r="3" spans="2:16" ht="18.75" x14ac:dyDescent="0.2">
       <c r="B3" s="10" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C3" s="10"/>
       <c r="D3" s="10"/>
       <c r="E3" s="10"/>
       <c r="F3" s="14" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G3" s="14"/>
       <c r="H3" s="14"/>
@@ -642,13 +639,13 @@
     </row>
     <row r="4" spans="2:16" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="10" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C4" s="10"/>
       <c r="D4" s="10"/>
       <c r="E4" s="10"/>
       <c r="F4" s="14" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G4" s="14"/>
       <c r="H4" s="14"/>
@@ -663,13 +660,13 @@
     </row>
     <row r="5" spans="2:16" ht="18.75" x14ac:dyDescent="0.2">
       <c r="B5" s="10" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C5" s="10"/>
       <c r="D5" s="10"/>
       <c r="E5" s="10"/>
       <c r="F5" s="14" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G5" s="14"/>
       <c r="H5" s="14"/>
@@ -683,14 +680,14 @@
       <c r="P5" s="14"/>
     </row>
     <row r="6" spans="2:16" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="B6" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="C6" s="10"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="10"/>
+      <c r="B6" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" s="13"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13"/>
       <c r="F6" s="14" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G6" s="14"/>
       <c r="H6" s="14"/>
@@ -704,12 +701,12 @@
       <c r="P6" s="14"/>
     </row>
     <row r="7" spans="2:16" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="B7" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="C7" s="13"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="13"/>
+      <c r="B7" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="10"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="10"/>
       <c r="F7" s="14" t="s">
         <v>6</v>
       </c>
@@ -766,50 +763,46 @@
       <c r="O9" s="14"/>
       <c r="P9" s="14"/>
     </row>
-    <row r="10" spans="2:16" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="B10" s="10" t="s">
+    <row r="10" spans="2:16" ht="1.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
+      <c r="M10" s="1"/>
+      <c r="N10" s="1"/>
+      <c r="O10" s="1"/>
+      <c r="P10" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C10" s="10"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="14" t="s">
+    </row>
+    <row r="11" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B11" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="G10" s="14"/>
-      <c r="H10" s="14"/>
-      <c r="I10" s="14"/>
-      <c r="J10" s="14"/>
-      <c r="K10" s="14"/>
-      <c r="L10" s="14"/>
-      <c r="M10" s="14"/>
-      <c r="N10" s="14"/>
-      <c r="O10" s="14"/>
-      <c r="P10" s="14"/>
-    </row>
-    <row r="11" spans="2:16" ht="1.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
-      <c r="K11" s="1"/>
-      <c r="L11" s="1"/>
-      <c r="M11" s="1"/>
-      <c r="N11" s="1"/>
-      <c r="O11" s="1"/>
-      <c r="P11" s="4" t="s">
-        <v>13</v>
-      </c>
+      <c r="C11" s="16"/>
+      <c r="D11" s="16"/>
+      <c r="E11" s="16"/>
+      <c r="F11" s="16"/>
+      <c r="G11" s="16"/>
+      <c r="H11" s="16"/>
+      <c r="I11" s="16"/>
+      <c r="J11" s="16"/>
+      <c r="K11" s="16"/>
+      <c r="L11" s="16"/>
+      <c r="M11" s="16"/>
+      <c r="N11" s="16"/>
+      <c r="O11" s="16"/>
+      <c r="P11" s="16"/>
     </row>
     <row r="12" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B12" s="16" t="s">
-        <v>14</v>
-      </c>
+      <c r="B12" s="16"/>
       <c r="C12" s="16"/>
       <c r="D12" s="16"/>
       <c r="E12" s="16"/>
@@ -826,204 +819,208 @@
       <c r="P12" s="16"/>
     </row>
     <row r="13" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B13" s="16"/>
-      <c r="C13" s="16"/>
-      <c r="D13" s="16"/>
-      <c r="E13" s="16"/>
-      <c r="F13" s="16"/>
-      <c r="G13" s="16"/>
-      <c r="H13" s="16"/>
-      <c r="I13" s="16"/>
-      <c r="J13" s="16"/>
-      <c r="K13" s="16"/>
-      <c r="L13" s="16"/>
-      <c r="M13" s="16"/>
-      <c r="N13" s="16"/>
-      <c r="O13" s="16"/>
-      <c r="P13" s="16"/>
+      <c r="B13" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" s="12"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="F13" s="12"/>
+      <c r="G13" s="12"/>
+      <c r="H13" s="12"/>
+      <c r="I13" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="J13" s="12"/>
+      <c r="K13" s="12"/>
+      <c r="L13" s="12"/>
+      <c r="M13" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="N13" s="12"/>
+      <c r="O13" s="12"/>
+      <c r="P13" s="12"/>
     </row>
     <row r="14" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B14" s="12" t="s">
-        <v>15</v>
-      </c>
+      <c r="B14" s="12"/>
       <c r="C14" s="12"/>
       <c r="D14" s="12"/>
-      <c r="E14" s="12" t="s">
-        <v>16</v>
-      </c>
+      <c r="E14" s="12"/>
       <c r="F14" s="12"/>
       <c r="G14" s="12"/>
       <c r="H14" s="12"/>
-      <c r="I14" s="12" t="s">
-        <v>17</v>
-      </c>
+      <c r="I14" s="12"/>
       <c r="J14" s="12"/>
       <c r="K14" s="12"/>
       <c r="L14" s="12"/>
-      <c r="M14" s="12" t="s">
-        <v>18</v>
-      </c>
+      <c r="M14" s="12"/>
       <c r="N14" s="12"/>
       <c r="O14" s="12"/>
       <c r="P14" s="12"/>
     </row>
-    <row r="15" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B15" s="12"/>
-      <c r="C15" s="12"/>
-      <c r="D15" s="12"/>
-      <c r="E15" s="12"/>
-      <c r="F15" s="12"/>
-      <c r="G15" s="12"/>
-      <c r="H15" s="12"/>
-      <c r="I15" s="12"/>
-      <c r="J15" s="12"/>
-      <c r="K15" s="12"/>
-      <c r="L15" s="12"/>
-      <c r="M15" s="12"/>
-      <c r="N15" s="12"/>
-      <c r="O15" s="12"/>
-      <c r="P15" s="12"/>
-    </row>
-    <row r="16" spans="2:16" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="11" t="s">
+    <row r="15" spans="2:16" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B15" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C15" s="11"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="F15" s="11"/>
+      <c r="G15" s="11"/>
+      <c r="H15" s="11"/>
+      <c r="I15" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="C16" s="11"/>
-      <c r="D16" s="11"/>
-      <c r="E16" s="11" t="s">
+      <c r="J15" s="11"/>
+      <c r="K15" s="11"/>
+      <c r="L15" s="11"/>
+      <c r="M15" s="15">
+        <v>44450</v>
+      </c>
+      <c r="N15" s="15"/>
+      <c r="O15" s="15"/>
+      <c r="P15" s="15"/>
+    </row>
+    <row r="16" spans="2:16" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B16" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="C16" s="19"/>
+      <c r="D16" s="19"/>
+      <c r="E16" s="19"/>
+      <c r="F16" s="19"/>
+      <c r="G16" s="19"/>
+      <c r="H16" s="19"/>
+      <c r="I16" s="19"/>
+      <c r="J16" s="19"/>
+      <c r="K16" s="19"/>
+      <c r="L16" s="19"/>
+      <c r="M16" s="19"/>
+      <c r="N16" s="19"/>
+      <c r="O16" s="19"/>
+      <c r="P16" s="19"/>
+    </row>
+    <row r="17" spans="1:19" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B17" s="8"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
+      <c r="H17" s="8"/>
+      <c r="I17" s="8"/>
+      <c r="J17" s="8"/>
+      <c r="K17" s="8"/>
+      <c r="L17" s="8"/>
+      <c r="M17" s="8"/>
+      <c r="N17" s="8"/>
+      <c r="O17" s="8"/>
+      <c r="P17" s="8"/>
+    </row>
+    <row r="18" spans="1:19" ht="29.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B18" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="F16" s="11"/>
-      <c r="G16" s="11"/>
-      <c r="H16" s="11"/>
-      <c r="I16" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="J16" s="11"/>
-      <c r="K16" s="11"/>
-      <c r="L16" s="11"/>
-      <c r="M16" s="15">
-        <v>44450</v>
-      </c>
-      <c r="N16" s="15"/>
-      <c r="O16" s="15"/>
-      <c r="P16" s="15"/>
-    </row>
-    <row r="17" spans="1:19" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="9" t="s">
+      <c r="C18" s="12"/>
+      <c r="D18" s="12"/>
+      <c r="E18" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="F18" s="12"/>
+      <c r="G18" s="12"/>
+      <c r="H18" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="C17" s="9"/>
-      <c r="D17" s="9"/>
-      <c r="E17" s="9"/>
-      <c r="F17" s="9"/>
-      <c r="G17" s="9"/>
-      <c r="H17" s="9"/>
-      <c r="I17" s="9"/>
-      <c r="J17" s="9"/>
-      <c r="K17" s="9"/>
-      <c r="L17" s="9"/>
-      <c r="M17" s="9"/>
-      <c r="N17" s="9"/>
-      <c r="O17" s="9"/>
-      <c r="P17" s="9"/>
-    </row>
-    <row r="18" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B18" s="9"/>
-      <c r="C18" s="9"/>
-      <c r="D18" s="9"/>
-      <c r="E18" s="9"/>
-      <c r="F18" s="9"/>
-      <c r="G18" s="9"/>
-      <c r="H18" s="9"/>
-      <c r="I18" s="9"/>
-      <c r="J18" s="9"/>
-      <c r="K18" s="9"/>
-      <c r="L18" s="9"/>
-      <c r="M18" s="9"/>
-      <c r="N18" s="9"/>
-      <c r="O18" s="9"/>
-      <c r="P18" s="9"/>
-    </row>
-    <row r="19" spans="1:19" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B19" s="9"/>
-      <c r="C19" s="9"/>
-      <c r="D19" s="9"/>
-      <c r="E19" s="9"/>
-      <c r="F19" s="9"/>
-      <c r="G19" s="9"/>
-      <c r="H19" s="9"/>
-      <c r="I19" s="9"/>
-      <c r="J19" s="9"/>
-      <c r="K19" s="9"/>
-      <c r="L19" s="9"/>
-      <c r="M19" s="9"/>
-      <c r="N19" s="9"/>
-      <c r="O19" s="9"/>
-      <c r="P19" s="9"/>
-    </row>
-    <row r="20" spans="1:19" ht="29.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B20" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="C20" s="12"/>
-      <c r="D20" s="12"/>
-      <c r="E20" s="12" t="s">
+      <c r="I18" s="12"/>
+      <c r="J18" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="F20" s="12"/>
-      <c r="G20" s="12"/>
-      <c r="H20" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="I20" s="12"/>
-      <c r="J20" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="K20" s="12"/>
-      <c r="L20" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="M20" s="17"/>
-      <c r="N20" s="17"/>
-      <c r="O20" s="17"/>
-      <c r="P20" s="17"/>
-    </row>
-    <row r="21" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B21" s="18"/>
-      <c r="C21" s="18"/>
-      <c r="D21" s="18"/>
-      <c r="E21" s="12"/>
-      <c r="F21" s="12"/>
-      <c r="G21" s="12"/>
-      <c r="H21" s="12"/>
-      <c r="I21" s="12"/>
-      <c r="J21" s="12"/>
-      <c r="K21" s="12"/>
-      <c r="L21" s="17"/>
-      <c r="M21" s="17"/>
-      <c r="N21" s="17"/>
-      <c r="O21" s="17"/>
-      <c r="P21" s="17"/>
-    </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="B22" s="7"/>
-      <c r="C22" s="7"/>
-      <c r="D22" s="7"/>
-      <c r="E22" s="7"/>
-      <c r="F22" s="7"/>
-      <c r="G22" s="7"/>
-      <c r="H22" s="7"/>
-      <c r="I22" s="7"/>
-      <c r="J22" s="7"/>
-      <c r="K22" s="7"/>
-      <c r="L22" s="7"/>
-      <c r="M22" s="7"/>
-      <c r="N22" s="7"/>
-      <c r="O22" s="7"/>
-      <c r="P22" s="7"/>
-    </row>
-    <row r="23" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K18" s="12"/>
+      <c r="L18" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="M18" s="18"/>
+      <c r="N18" s="18"/>
+      <c r="O18" s="18"/>
+      <c r="P18" s="18"/>
+    </row>
+    <row r="19" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B19" s="17"/>
+      <c r="C19" s="17"/>
+      <c r="D19" s="17"/>
+      <c r="E19" s="12"/>
+      <c r="F19" s="12"/>
+      <c r="G19" s="12"/>
+      <c r="H19" s="12"/>
+      <c r="I19" s="12"/>
+      <c r="J19" s="12"/>
+      <c r="K19" s="12"/>
+      <c r="L19" s="18"/>
+      <c r="M19" s="18"/>
+      <c r="N19" s="18"/>
+      <c r="O19" s="18"/>
+      <c r="P19" s="18"/>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="B20" s="7"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="7"/>
+      <c r="H20" s="7"/>
+      <c r="I20" s="7"/>
+      <c r="J20" s="7"/>
+      <c r="K20" s="7"/>
+      <c r="L20" s="7"/>
+      <c r="M20" s="7"/>
+      <c r="N20" s="7"/>
+      <c r="O20" s="7"/>
+      <c r="P20" s="7"/>
+    </row>
+    <row r="21" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
+      <c r="I21" s="2"/>
+      <c r="J21" s="2"/>
+      <c r="K21" s="2"/>
+      <c r="L21" s="2"/>
+      <c r="M21" s="2"/>
+      <c r="N21" s="2"/>
+      <c r="O21" s="2"/>
+      <c r="P21" s="2"/>
+      <c r="S21" s="5"/>
+    </row>
+    <row r="22" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="6"/>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
+      <c r="I22" s="2"/>
+      <c r="J22" s="2"/>
+      <c r="K22" s="2"/>
+      <c r="L22" s="2"/>
+      <c r="M22" s="2"/>
+      <c r="N22" s="2"/>
+      <c r="O22" s="2"/>
+      <c r="P22" s="2"/>
+      <c r="S22" s="5"/>
+    </row>
+    <row r="23" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="6"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
@@ -1041,7 +1038,7 @@
       <c r="P23" s="2"/>
       <c r="S23" s="5"/>
     </row>
-    <row r="24" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="6"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
@@ -1058,9 +1055,8 @@
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
       <c r="P24" s="2"/>
-      <c r="S24" s="5"/>
-    </row>
-    <row r="25" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="25" spans="1:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="6"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
@@ -1077,9 +1073,8 @@
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
       <c r="P25" s="2"/>
-      <c r="S25" s="5"/>
-    </row>
-    <row r="26" spans="1:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="26" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="6"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
@@ -1097,7 +1092,7 @@
       <c r="O26" s="2"/>
       <c r="P26" s="2"/>
     </row>
-    <row r="27" spans="1:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="6"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
@@ -1133,7 +1128,7 @@
       <c r="O28" s="2"/>
       <c r="P28" s="2"/>
     </row>
-    <row r="29" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="6"/>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
@@ -1151,7 +1146,7 @@
       <c r="O29" s="2"/>
       <c r="P29" s="2"/>
     </row>
-    <row r="30" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:19" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="6"/>
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
@@ -1169,7 +1164,7 @@
       <c r="O30" s="2"/>
       <c r="P30" s="2"/>
     </row>
-    <row r="31" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="6"/>
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
@@ -1187,7 +1182,7 @@
       <c r="O31" s="2"/>
       <c r="P31" s="2"/>
     </row>
-    <row r="32" spans="1:19" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="6"/>
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
@@ -1205,82 +1200,44 @@
       <c r="O32" s="2"/>
       <c r="P32" s="2"/>
     </row>
-    <row r="33" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="6"/>
-      <c r="B33" s="2"/>
-      <c r="C33" s="2"/>
-      <c r="D33" s="2"/>
-      <c r="E33" s="2"/>
-      <c r="F33" s="2"/>
-      <c r="G33" s="2"/>
-      <c r="H33" s="2"/>
-      <c r="I33" s="2"/>
-      <c r="J33" s="2"/>
-      <c r="K33" s="2"/>
-      <c r="L33" s="2"/>
-      <c r="M33" s="2"/>
-      <c r="N33" s="2"/>
-      <c r="O33" s="2"/>
-      <c r="P33" s="2"/>
-    </row>
-    <row r="34" spans="1:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="6"/>
-      <c r="B34" s="2"/>
-      <c r="C34" s="2"/>
-      <c r="D34" s="2"/>
-      <c r="E34" s="2"/>
-      <c r="F34" s="2"/>
-      <c r="G34" s="2"/>
-      <c r="H34" s="2"/>
-      <c r="I34" s="2"/>
-      <c r="J34" s="2"/>
-      <c r="K34" s="2"/>
-      <c r="L34" s="2"/>
-      <c r="M34" s="2"/>
-      <c r="N34" s="2"/>
-      <c r="O34" s="2"/>
-      <c r="P34" s="2"/>
-    </row>
   </sheetData>
-  <mergeCells count="38">
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="E21:G21"/>
-    <mergeCell ref="H21:I21"/>
-    <mergeCell ref="J21:K21"/>
-    <mergeCell ref="L20:P20"/>
-    <mergeCell ref="L21:P21"/>
-    <mergeCell ref="J20:K20"/>
+  <mergeCells count="36">
     <mergeCell ref="F3:P3"/>
     <mergeCell ref="F4:P4"/>
     <mergeCell ref="F5:P5"/>
+    <mergeCell ref="F7:P7"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="E19:G19"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="J19:K19"/>
+    <mergeCell ref="L18:P18"/>
+    <mergeCell ref="L19:P19"/>
+    <mergeCell ref="J18:K18"/>
+    <mergeCell ref="B16:P16"/>
+    <mergeCell ref="M15:P15"/>
+    <mergeCell ref="F9:P9"/>
+    <mergeCell ref="E18:G18"/>
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="B11:P12"/>
+    <mergeCell ref="B13:D14"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="B1:P1"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="B7:E7"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="E15:H15"/>
+    <mergeCell ref="E13:H14"/>
+    <mergeCell ref="I13:L14"/>
+    <mergeCell ref="M13:P14"/>
+    <mergeCell ref="B2:P2"/>
+    <mergeCell ref="B6:E6"/>
     <mergeCell ref="F6:P6"/>
-    <mergeCell ref="F8:P8"/>
-    <mergeCell ref="F9:P9"/>
-    <mergeCell ref="I16:L16"/>
-    <mergeCell ref="M16:P16"/>
-    <mergeCell ref="F10:P10"/>
-    <mergeCell ref="E20:G20"/>
-    <mergeCell ref="B10:E10"/>
-    <mergeCell ref="B12:P13"/>
-    <mergeCell ref="B14:D15"/>
-    <mergeCell ref="H20:I20"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="B1:P1"/>
-    <mergeCell ref="B17:P19"/>
-    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="B4:E4"/>
     <mergeCell ref="B5:E5"/>
     <mergeCell ref="B8:E8"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="E16:H16"/>
-    <mergeCell ref="E14:H15"/>
-    <mergeCell ref="I14:L15"/>
-    <mergeCell ref="M14:P15"/>
-    <mergeCell ref="B2:P2"/>
-    <mergeCell ref="B7:E7"/>
-    <mergeCell ref="F7:P7"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="B6:E6"/>
-    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="F8:P8"/>
+    <mergeCell ref="I15:L15"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.1" right="0.3" top="1.4" bottom="0.2" header="0.5" footer="0.5"/>

--- a/static/inputData/Template/particle_count_template.xlsx
+++ b/static/inputData/Template/particle_count_template.xlsx
@@ -81,9 +81,6 @@
     <t>S12K240201</t>
   </si>
   <si>
-    <t>Room Name &amp; ID No.</t>
-  </si>
-  <si>
     <t xml:space="preserve">OBSERVATIONS:           </t>
   </si>
   <si>
@@ -106,6 +103,9 @@
   </si>
   <si>
     <t>PARTICLE COUNT TEST</t>
+  </si>
+  <si>
+    <t>Room Name</t>
   </si>
 </sst>
 </file>
@@ -215,29 +215,26 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -246,6 +243,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -556,7 +556,7 @@
   <dimension ref="A1:S32"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="82" zoomScaleNormal="100" zoomScaleSheetLayoutView="82" workbookViewId="0">
-      <selection activeCell="V24" sqref="V24"/>
+      <selection activeCell="B18" sqref="B18:D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -581,187 +581,187 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:16" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B1" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9"/>
-      <c r="J1" s="9"/>
-      <c r="K1" s="9"/>
-      <c r="L1" s="9"/>
-      <c r="M1" s="9"/>
-      <c r="N1" s="9"/>
-      <c r="O1" s="9"/>
-      <c r="P1" s="9"/>
-    </row>
-    <row r="2" spans="2:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="9"/>
-      <c r="I2" s="9"/>
-      <c r="J2" s="9"/>
-      <c r="K2" s="9"/>
-      <c r="L2" s="9"/>
-      <c r="M2" s="9"/>
-      <c r="N2" s="9"/>
-      <c r="O2" s="9"/>
-      <c r="P2" s="9"/>
+      <c r="B1" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
+      <c r="J1" s="14"/>
+      <c r="K1" s="14"/>
+      <c r="L1" s="14"/>
+      <c r="M1" s="14"/>
+      <c r="N1" s="14"/>
+      <c r="O1" s="14"/>
+      <c r="P1" s="14"/>
+    </row>
+    <row r="2" spans="2:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B2" s="14"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="14"/>
+      <c r="I2" s="14"/>
+      <c r="J2" s="14"/>
+      <c r="K2" s="14"/>
+      <c r="L2" s="14"/>
+      <c r="M2" s="14"/>
+      <c r="N2" s="14"/>
+      <c r="O2" s="14"/>
+      <c r="P2" s="14"/>
     </row>
     <row r="3" spans="2:16" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="14" t="s">
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="G3" s="14"/>
-      <c r="H3" s="14"/>
-      <c r="I3" s="14"/>
-      <c r="J3" s="14"/>
-      <c r="K3" s="14"/>
-      <c r="L3" s="14"/>
-      <c r="M3" s="14"/>
-      <c r="N3" s="14"/>
-      <c r="O3" s="14"/>
-      <c r="P3" s="14"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="10"/>
+      <c r="J3" s="10"/>
+      <c r="K3" s="10"/>
+      <c r="L3" s="10"/>
+      <c r="M3" s="10"/>
+      <c r="N3" s="10"/>
+      <c r="O3" s="10"/>
+      <c r="P3" s="10"/>
     </row>
     <row r="4" spans="2:16" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="10"/>
-      <c r="D4" s="10"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="14" t="s">
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="G4" s="14"/>
-      <c r="H4" s="14"/>
-      <c r="I4" s="14"/>
-      <c r="J4" s="14"/>
-      <c r="K4" s="14"/>
-      <c r="L4" s="14"/>
-      <c r="M4" s="14"/>
-      <c r="N4" s="14"/>
-      <c r="O4" s="14"/>
-      <c r="P4" s="14"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="10"/>
+      <c r="I4" s="10"/>
+      <c r="J4" s="10"/>
+      <c r="K4" s="10"/>
+      <c r="L4" s="10"/>
+      <c r="M4" s="10"/>
+      <c r="N4" s="10"/>
+      <c r="O4" s="10"/>
+      <c r="P4" s="10"/>
     </row>
     <row r="5" spans="2:16" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="G5" s="10"/>
+      <c r="H5" s="10"/>
+      <c r="I5" s="10"/>
+      <c r="J5" s="10"/>
+      <c r="K5" s="10"/>
+      <c r="L5" s="10"/>
+      <c r="M5" s="10"/>
+      <c r="N5" s="10"/>
+      <c r="O5" s="10"/>
+      <c r="P5" s="10"/>
+    </row>
+    <row r="6" spans="2:16" ht="18.75" x14ac:dyDescent="0.2">
+      <c r="B6" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="C5" s="10"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="14" t="s">
+      <c r="C6" s="15"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="G5" s="14"/>
-      <c r="H5" s="14"/>
-      <c r="I5" s="14"/>
-      <c r="J5" s="14"/>
-      <c r="K5" s="14"/>
-      <c r="L5" s="14"/>
-      <c r="M5" s="14"/>
-      <c r="N5" s="14"/>
-      <c r="O5" s="14"/>
-      <c r="P5" s="14"/>
-    </row>
-    <row r="6" spans="2:16" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="B6" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="C6" s="13"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="G6" s="14"/>
-      <c r="H6" s="14"/>
-      <c r="I6" s="14"/>
-      <c r="J6" s="14"/>
-      <c r="K6" s="14"/>
-      <c r="L6" s="14"/>
-      <c r="M6" s="14"/>
-      <c r="N6" s="14"/>
-      <c r="O6" s="14"/>
-      <c r="P6" s="14"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="10"/>
+      <c r="I6" s="10"/>
+      <c r="J6" s="10"/>
+      <c r="K6" s="10"/>
+      <c r="L6" s="10"/>
+      <c r="M6" s="10"/>
+      <c r="N6" s="10"/>
+      <c r="O6" s="10"/>
+      <c r="P6" s="10"/>
     </row>
     <row r="7" spans="2:16" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="10"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="14" t="s">
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="G7" s="14"/>
-      <c r="H7" s="14"/>
-      <c r="I7" s="14"/>
-      <c r="J7" s="14"/>
-      <c r="K7" s="14"/>
-      <c r="L7" s="14"/>
-      <c r="M7" s="14"/>
-      <c r="N7" s="14"/>
-      <c r="O7" s="14"/>
-      <c r="P7" s="14"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="10"/>
+      <c r="I7" s="10"/>
+      <c r="J7" s="10"/>
+      <c r="K7" s="10"/>
+      <c r="L7" s="10"/>
+      <c r="M7" s="10"/>
+      <c r="N7" s="10"/>
+      <c r="O7" s="10"/>
+      <c r="P7" s="10"/>
     </row>
     <row r="8" spans="2:16" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="10"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="14" t="s">
+      <c r="C8" s="9"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="G8" s="14"/>
-      <c r="H8" s="14"/>
-      <c r="I8" s="14"/>
-      <c r="J8" s="14"/>
-      <c r="K8" s="14"/>
-      <c r="L8" s="14"/>
-      <c r="M8" s="14"/>
-      <c r="N8" s="14"/>
-      <c r="O8" s="14"/>
-      <c r="P8" s="14"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="10"/>
+      <c r="I8" s="10"/>
+      <c r="J8" s="10"/>
+      <c r="K8" s="10"/>
+      <c r="L8" s="10"/>
+      <c r="M8" s="10"/>
+      <c r="N8" s="10"/>
+      <c r="O8" s="10"/>
+      <c r="P8" s="10"/>
     </row>
     <row r="9" spans="2:16" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="B9" s="10" t="s">
+      <c r="B9" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="10"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="14" t="s">
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="G9" s="14"/>
-      <c r="H9" s="14"/>
-      <c r="I9" s="14"/>
-      <c r="J9" s="14"/>
-      <c r="K9" s="14"/>
-      <c r="L9" s="14"/>
-      <c r="M9" s="14"/>
-      <c r="N9" s="14"/>
-      <c r="O9" s="14"/>
-      <c r="P9" s="14"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="10"/>
+      <c r="J9" s="10"/>
+      <c r="K9" s="10"/>
+      <c r="L9" s="10"/>
+      <c r="M9" s="10"/>
+      <c r="N9" s="10"/>
+      <c r="O9" s="10"/>
+      <c r="P9" s="10"/>
     </row>
     <row r="10" spans="2:16" ht="1.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="1"/>
@@ -783,82 +783,82 @@
       </c>
     </row>
     <row r="11" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B11" s="16" t="s">
+      <c r="B11" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="16"/>
-      <c r="D11" s="16"/>
-      <c r="E11" s="16"/>
-      <c r="F11" s="16"/>
-      <c r="G11" s="16"/>
-      <c r="H11" s="16"/>
-      <c r="I11" s="16"/>
-      <c r="J11" s="16"/>
-      <c r="K11" s="16"/>
-      <c r="L11" s="16"/>
-      <c r="M11" s="16"/>
-      <c r="N11" s="16"/>
-      <c r="O11" s="16"/>
-      <c r="P11" s="16"/>
+      <c r="C11" s="12"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="12"/>
+      <c r="G11" s="12"/>
+      <c r="H11" s="12"/>
+      <c r="I11" s="12"/>
+      <c r="J11" s="12"/>
+      <c r="K11" s="12"/>
+      <c r="L11" s="12"/>
+      <c r="M11" s="12"/>
+      <c r="N11" s="12"/>
+      <c r="O11" s="12"/>
+      <c r="P11" s="12"/>
     </row>
     <row r="12" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B12" s="16"/>
-      <c r="C12" s="16"/>
-      <c r="D12" s="16"/>
-      <c r="E12" s="16"/>
-      <c r="F12" s="16"/>
-      <c r="G12" s="16"/>
-      <c r="H12" s="16"/>
-      <c r="I12" s="16"/>
-      <c r="J12" s="16"/>
-      <c r="K12" s="16"/>
-      <c r="L12" s="16"/>
-      <c r="M12" s="16"/>
-      <c r="N12" s="16"/>
-      <c r="O12" s="16"/>
-      <c r="P12" s="16"/>
+      <c r="B12" s="12"/>
+      <c r="C12" s="12"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="12"/>
+      <c r="G12" s="12"/>
+      <c r="H12" s="12"/>
+      <c r="I12" s="12"/>
+      <c r="J12" s="12"/>
+      <c r="K12" s="12"/>
+      <c r="L12" s="12"/>
+      <c r="M12" s="12"/>
+      <c r="N12" s="12"/>
+      <c r="O12" s="12"/>
+      <c r="P12" s="12"/>
     </row>
     <row r="13" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B13" s="12" t="s">
+      <c r="B13" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="12"/>
-      <c r="D13" s="12"/>
-      <c r="E13" s="12" t="s">
+      <c r="C13" s="13"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="F13" s="12"/>
-      <c r="G13" s="12"/>
-      <c r="H13" s="12"/>
-      <c r="I13" s="12" t="s">
+      <c r="F13" s="13"/>
+      <c r="G13" s="13"/>
+      <c r="H13" s="13"/>
+      <c r="I13" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="J13" s="12"/>
-      <c r="K13" s="12"/>
-      <c r="L13" s="12"/>
-      <c r="M13" s="12" t="s">
+      <c r="J13" s="13"/>
+      <c r="K13" s="13"/>
+      <c r="L13" s="13"/>
+      <c r="M13" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="N13" s="12"/>
-      <c r="O13" s="12"/>
-      <c r="P13" s="12"/>
+      <c r="N13" s="13"/>
+      <c r="O13" s="13"/>
+      <c r="P13" s="13"/>
     </row>
     <row r="14" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B14" s="12"/>
-      <c r="C14" s="12"/>
-      <c r="D14" s="12"/>
-      <c r="E14" s="12"/>
-      <c r="F14" s="12"/>
-      <c r="G14" s="12"/>
-      <c r="H14" s="12"/>
-      <c r="I14" s="12"/>
-      <c r="J14" s="12"/>
-      <c r="K14" s="12"/>
-      <c r="L14" s="12"/>
-      <c r="M14" s="12"/>
-      <c r="N14" s="12"/>
-      <c r="O14" s="12"/>
-      <c r="P14" s="12"/>
+      <c r="B14" s="13"/>
+      <c r="C14" s="13"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="13"/>
+      <c r="H14" s="13"/>
+      <c r="I14" s="13"/>
+      <c r="J14" s="13"/>
+      <c r="K14" s="13"/>
+      <c r="L14" s="13"/>
+      <c r="M14" s="13"/>
+      <c r="N14" s="13"/>
+      <c r="O14" s="13"/>
+      <c r="P14" s="13"/>
     </row>
     <row r="15" spans="2:16" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="11" t="s">
@@ -878,31 +878,31 @@
       <c r="J15" s="11"/>
       <c r="K15" s="11"/>
       <c r="L15" s="11"/>
-      <c r="M15" s="15">
+      <c r="M15" s="19">
         <v>44450</v>
       </c>
-      <c r="N15" s="15"/>
-      <c r="O15" s="15"/>
-      <c r="P15" s="15"/>
+      <c r="N15" s="19"/>
+      <c r="O15" s="19"/>
+      <c r="P15" s="19"/>
     </row>
     <row r="16" spans="2:16" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="C16" s="19"/>
-      <c r="D16" s="19"/>
-      <c r="E16" s="19"/>
-      <c r="F16" s="19"/>
-      <c r="G16" s="19"/>
-      <c r="H16" s="19"/>
-      <c r="I16" s="19"/>
-      <c r="J16" s="19"/>
-      <c r="K16" s="19"/>
-      <c r="L16" s="19"/>
-      <c r="M16" s="19"/>
-      <c r="N16" s="19"/>
-      <c r="O16" s="19"/>
-      <c r="P16" s="19"/>
+      <c r="B16" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="C16" s="18"/>
+      <c r="D16" s="18"/>
+      <c r="E16" s="18"/>
+      <c r="F16" s="18"/>
+      <c r="G16" s="18"/>
+      <c r="H16" s="18"/>
+      <c r="I16" s="18"/>
+      <c r="J16" s="18"/>
+      <c r="K16" s="18"/>
+      <c r="L16" s="18"/>
+      <c r="M16" s="18"/>
+      <c r="N16" s="18"/>
+      <c r="O16" s="18"/>
+      <c r="P16" s="18"/>
     </row>
     <row r="17" spans="1:19" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="8"/>
@@ -922,48 +922,48 @@
       <c r="P17" s="8"/>
     </row>
     <row r="18" spans="1:19" ht="29.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B18" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="C18" s="12"/>
-      <c r="D18" s="12"/>
-      <c r="E18" s="12" t="s">
+      <c r="B18" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="C18" s="13"/>
+      <c r="D18" s="13"/>
+      <c r="E18" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="F18" s="13"/>
+      <c r="G18" s="13"/>
+      <c r="H18" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="F18" s="12"/>
-      <c r="G18" s="12"/>
-      <c r="H18" s="12" t="s">
+      <c r="I18" s="13"/>
+      <c r="J18" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="I18" s="12"/>
-      <c r="J18" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="K18" s="12"/>
-      <c r="L18" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="M18" s="18"/>
-      <c r="N18" s="18"/>
-      <c r="O18" s="18"/>
-      <c r="P18" s="18"/>
+      <c r="K18" s="13"/>
+      <c r="L18" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="M18" s="17"/>
+      <c r="N18" s="17"/>
+      <c r="O18" s="17"/>
+      <c r="P18" s="17"/>
     </row>
     <row r="19" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B19" s="17"/>
-      <c r="C19" s="17"/>
-      <c r="D19" s="17"/>
-      <c r="E19" s="12"/>
-      <c r="F19" s="12"/>
-      <c r="G19" s="12"/>
-      <c r="H19" s="12"/>
-      <c r="I19" s="12"/>
-      <c r="J19" s="12"/>
-      <c r="K19" s="12"/>
-      <c r="L19" s="18"/>
-      <c r="M19" s="18"/>
-      <c r="N19" s="18"/>
-      <c r="O19" s="18"/>
-      <c r="P19" s="18"/>
+      <c r="B19" s="16"/>
+      <c r="C19" s="16"/>
+      <c r="D19" s="16"/>
+      <c r="E19" s="13"/>
+      <c r="F19" s="13"/>
+      <c r="G19" s="13"/>
+      <c r="H19" s="13"/>
+      <c r="I19" s="13"/>
+      <c r="J19" s="13"/>
+      <c r="K19" s="13"/>
+      <c r="L19" s="17"/>
+      <c r="M19" s="17"/>
+      <c r="N19" s="17"/>
+      <c r="O19" s="17"/>
+      <c r="P19" s="17"/>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B20" s="7"/>
@@ -1202,10 +1202,11 @@
     </row>
   </sheetData>
   <mergeCells count="36">
-    <mergeCell ref="F3:P3"/>
-    <mergeCell ref="F4:P4"/>
-    <mergeCell ref="F5:P5"/>
-    <mergeCell ref="F7:P7"/>
+    <mergeCell ref="B16:P16"/>
+    <mergeCell ref="M15:P15"/>
+    <mergeCell ref="F9:P9"/>
+    <mergeCell ref="E18:G18"/>
+    <mergeCell ref="B9:E9"/>
     <mergeCell ref="B19:D19"/>
     <mergeCell ref="E19:G19"/>
     <mergeCell ref="H19:I19"/>
@@ -1213,13 +1214,6 @@
     <mergeCell ref="L18:P18"/>
     <mergeCell ref="L19:P19"/>
     <mergeCell ref="J18:K18"/>
-    <mergeCell ref="B16:P16"/>
-    <mergeCell ref="M15:P15"/>
-    <mergeCell ref="F9:P9"/>
-    <mergeCell ref="E18:G18"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="B11:P12"/>
-    <mergeCell ref="B13:D14"/>
     <mergeCell ref="H18:I18"/>
     <mergeCell ref="B18:D18"/>
     <mergeCell ref="B1:P1"/>
@@ -1234,10 +1228,16 @@
     <mergeCell ref="B6:E6"/>
     <mergeCell ref="F6:P6"/>
     <mergeCell ref="B4:E4"/>
+    <mergeCell ref="F3:P3"/>
+    <mergeCell ref="F4:P4"/>
     <mergeCell ref="B5:E5"/>
     <mergeCell ref="B8:E8"/>
     <mergeCell ref="F8:P8"/>
     <mergeCell ref="I15:L15"/>
+    <mergeCell ref="B11:P12"/>
+    <mergeCell ref="B13:D14"/>
+    <mergeCell ref="F5:P5"/>
+    <mergeCell ref="F7:P7"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.1" right="0.3" top="1.4" bottom="0.2" header="0.5" footer="0.5"/>
